--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BCE/10/seed3/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/BCE/10/seed3/result_data_RandomForest.xlsx
@@ -491,7 +491,7 @@
         <v>-8.949999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>16.3573</v>
+        <v>16.3891</v>
       </c>
     </row>
     <row r="4">
@@ -553,7 +553,7 @@
         <v>9.43</v>
       </c>
       <c r="C7" t="n">
-        <v>-13.32409999999999</v>
+        <v>-13.28699999999999</v>
       </c>
       <c r="D7" t="n">
         <v>-9.359999999999999</v>
@@ -601,7 +601,7 @@
         <v>-22.54</v>
       </c>
       <c r="B10" t="n">
-        <v>5.174499999999998</v>
+        <v>5.581299999999998</v>
       </c>
       <c r="C10" t="n">
         <v>-12.45</v>
@@ -635,7 +635,7 @@
         <v>-21.67</v>
       </c>
       <c r="B12" t="n">
-        <v>4.920199999999999</v>
+        <v>4.992799999999999</v>
       </c>
       <c r="C12" t="n">
         <v>-9.76</v>
@@ -689,7 +689,7 @@
         <v>5.32</v>
       </c>
       <c r="C15" t="n">
-        <v>-14.16859999999999</v>
+        <v>-14.18709999999999</v>
       </c>
       <c r="D15" t="n">
         <v>-10.04</v>
@@ -737,7 +737,7 @@
         <v>-23.4</v>
       </c>
       <c r="B18" t="n">
-        <v>6.768199999999995</v>
+        <v>6.648999999999993</v>
       </c>
       <c r="C18" t="n">
         <v>-15.14</v>
@@ -746,7 +746,7 @@
         <v>-6.27</v>
       </c>
       <c r="E18" t="n">
-        <v>17.97990000000002</v>
+        <v>18.0276</v>
       </c>
     </row>
     <row r="19">
@@ -763,7 +763,7 @@
         <v>-7.9</v>
       </c>
       <c r="E19" t="n">
-        <v>16.3478</v>
+        <v>16.5417</v>
       </c>
     </row>
     <row r="20">
@@ -774,7 +774,7 @@
         <v>10.19</v>
       </c>
       <c r="C20" t="n">
-        <v>-12.00290000000001</v>
+        <v>-12.0556</v>
       </c>
       <c r="D20" t="n">
         <v>-10.64</v>
@@ -899,7 +899,7 @@
         <v>-8.550000000000001</v>
       </c>
       <c r="E27" t="n">
-        <v>16.55239999999999</v>
+        <v>16.54599999999999</v>
       </c>
     </row>
     <row r="28">
@@ -927,7 +927,7 @@
         <v>7.52</v>
       </c>
       <c r="C29" t="n">
-        <v>-11.2769</v>
+        <v>-11.4575</v>
       </c>
       <c r="D29" t="n">
         <v>-7.09</v>
@@ -944,7 +944,7 @@
         <v>5.27</v>
       </c>
       <c r="C30" t="n">
-        <v>-12.60379999999999</v>
+        <v>-12.76129999999999</v>
       </c>
       <c r="D30" t="n">
         <v>-10.18</v>
@@ -961,7 +961,7 @@
         <v>4.47</v>
       </c>
       <c r="C31" t="n">
-        <v>-12.9142</v>
+        <v>-12.78379999999999</v>
       </c>
       <c r="D31" t="n">
         <v>-9.77</v>
@@ -1060,7 +1060,7 @@
         <v>-19.97</v>
       </c>
       <c r="B37" t="n">
-        <v>8.788500000000003</v>
+        <v>8.964</v>
       </c>
       <c r="C37" t="n">
         <v>-12.29</v>
@@ -1114,7 +1114,7 @@
         <v>10.75</v>
       </c>
       <c r="C40" t="n">
-        <v>-12.6859</v>
+        <v>-12.6933</v>
       </c>
       <c r="D40" t="n">
         <v>-7.23</v>
@@ -1154,7 +1154,7 @@
         <v>-7.75</v>
       </c>
       <c r="E42" t="n">
-        <v>16.4037</v>
+        <v>16.563</v>
       </c>
     </row>
     <row r="43">
@@ -1188,7 +1188,7 @@
         <v>-8.220000000000001</v>
       </c>
       <c r="E44" t="n">
-        <v>16.54009999999999</v>
+        <v>16.47839999999999</v>
       </c>
     </row>
     <row r="45">
@@ -1239,7 +1239,7 @@
         <v>-8.5</v>
       </c>
       <c r="E47" t="n">
-        <v>16.5721</v>
+        <v>16.52869999999999</v>
       </c>
     </row>
     <row r="48">
@@ -1366,7 +1366,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>6.347099999999995</v>
+        <v>6.266599999999994</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1426,7 +1426,7 @@
         <v>-7.51</v>
       </c>
       <c r="E58" t="n">
-        <v>16.19820000000001</v>
+        <v>16.445</v>
       </c>
     </row>
     <row r="59">
@@ -1587,10 +1587,10 @@
         <v>-21.44</v>
       </c>
       <c r="B68" t="n">
-        <v>6.158200000000004</v>
+        <v>5.899900000000001</v>
       </c>
       <c r="C68" t="n">
-        <v>-11.81610000000001</v>
+        <v>-12.1249</v>
       </c>
       <c r="D68" t="n">
         <v>-7.27</v>
@@ -1681,7 +1681,7 @@
         <v>-6.42</v>
       </c>
       <c r="E73" t="n">
-        <v>17.33320000000001</v>
+        <v>17.35050000000001</v>
       </c>
     </row>
     <row r="74">
@@ -1726,7 +1726,7 @@
         <v>9.23</v>
       </c>
       <c r="C76" t="n">
-        <v>-12.4685</v>
+        <v>-12.17780000000001</v>
       </c>
       <c r="D76" t="n">
         <v>-7.88</v>
@@ -1740,7 +1740,7 @@
         <v>-19.89</v>
       </c>
       <c r="B77" t="n">
-        <v>9.097200000000004</v>
+        <v>8.773300000000008</v>
       </c>
       <c r="C77" t="n">
         <v>-9.57</v>
@@ -1757,7 +1757,7 @@
         <v>-20.31</v>
       </c>
       <c r="B78" t="n">
-        <v>9.373699999999999</v>
+        <v>9.3781</v>
       </c>
       <c r="C78" t="n">
         <v>-13.33</v>
@@ -1913,7 +1913,7 @@
         <v>5.81</v>
       </c>
       <c r="C87" t="n">
-        <v>-14.17069999999999</v>
+        <v>-13.99499999999999</v>
       </c>
       <c r="D87" t="n">
         <v>-8.869999999999999</v>
@@ -1930,7 +1930,7 @@
         <v>5.51</v>
       </c>
       <c r="C88" t="n">
-        <v>-13.19609999999999</v>
+        <v>-13.07339999999999</v>
       </c>
       <c r="D88" t="n">
         <v>-8.140000000000001</v>
@@ -2055,7 +2055,7 @@
         <v>-6.44</v>
       </c>
       <c r="E95" t="n">
-        <v>18.21110000000002</v>
+        <v>18.18690000000002</v>
       </c>
     </row>
     <row r="96">
@@ -2066,7 +2066,7 @@
         <v>5.8</v>
       </c>
       <c r="C96" t="n">
-        <v>-12.6145</v>
+        <v>-12.604</v>
       </c>
       <c r="D96" t="n">
         <v>-8.529999999999999</v>
@@ -2100,7 +2100,7 @@
         <v>4.73</v>
       </c>
       <c r="C98" t="n">
-        <v>-12.2477</v>
+        <v>-12.0616</v>
       </c>
       <c r="D98" t="n">
         <v>-9.33</v>
@@ -2151,13 +2151,13 @@
         <v>7.61</v>
       </c>
       <c r="C101" t="n">
-        <v>-12.16220000000001</v>
+        <v>-12.2627</v>
       </c>
       <c r="D101" t="n">
         <v>-7.34</v>
       </c>
       <c r="E101" t="n">
-        <v>16.72750000000001</v>
+        <v>16.66220000000002</v>
       </c>
     </row>
     <row r="102">
@@ -2168,7 +2168,7 @@
         <v>9.01</v>
       </c>
       <c r="C102" t="n">
-        <v>-13.00980000000001</v>
+        <v>-12.6751</v>
       </c>
       <c r="D102" t="n">
         <v>-8.630000000000001</v>
